--- a/data/georgia_census/samegrelo/walenjixa/age_dependency.xlsx
+++ b/data/georgia_census/samegrelo/walenjixa/age_dependency.xlsx
@@ -1007,13 +1007,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13348834-F343-4725-925A-F6996743BC6A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FA8FD202-802C-47FB-8D04-9385912991D2}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B197833-477E-4938-9129-0B75A0E3B0AD}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1524F8A0-516C-4D4A-840A-8E64FE966CB8}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8E7ECA4-E9E9-4D94-9243-569EEA380C12}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{974082EB-21E8-4BE9-A7E3-9E3A17043EA4}"/>
 </file>